--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t xml:space="preserve">C# </t>
   </si>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,6 +459,9 @@
       <c r="B6" s="1">
         <v>43436</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -467,6 +470,9 @@
       <c r="B7" s="1">
         <v>43436</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -475,6 +481,9 @@
       <c r="B8" s="1">
         <v>43436</v>
       </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -482,6 +491,9 @@
       </c>
       <c r="B9" s="1">
         <v>43437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
